--- a/导引三.xlsx
+++ b/导引三.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dlt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C1B676-B08D-476D-87B0-0036CEF76B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46717C4-177C-4266-8BD4-C1EA83B76C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$25</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>1~2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盈亏问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智巧趣题一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +155,22 @@
   </si>
   <si>
     <t>complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏问题一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,12 +200,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,9 +232,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,7 +521,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -506,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -528,14 +558,17 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -545,8 +578,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -556,8 +592,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -567,8 +606,14 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -578,8 +623,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -589,8 +637,14 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -600,25 +654,42 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -627,8 +698,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -636,10 +710,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -647,10 +724,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -658,15 +741,24 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -674,10 +766,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,7 +780,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
@@ -693,10 +788,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
@@ -704,18 +802,27 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,23 +830,35 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
@@ -747,21 +866,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I25" xr:uid="{B1E41A7D-20C1-4F82-A994-5B57CE4B2AC9}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/导引三.xlsx
+++ b/导引三.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dlt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46717C4-177C-4266-8BD4-C1EA83B76C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCECEB45-27BE-42E2-A98E-A70A2C2015F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>1~2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,7 +200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,12 +210,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,11 +226,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +514,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -592,7 +585,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -606,11 +599,14 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
@@ -679,17 +675,17 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11">

--- a/导引三.xlsx
+++ b/导引三.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dlt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCECEB45-27BE-42E2-A98E-A70A2C2015F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7EC78D-5C2B-4A84-B0E7-E49AAED46CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -764,7 +764,7 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -836,7 +836,7 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">

--- a/导引三.xlsx
+++ b/导引三.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dlt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7EC78D-5C2B-4A84-B0E7-E49AAED46CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA8053C-1AC0-4956-958E-27F861FABFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>1~2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,7 +200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,11 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -511,10 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -551,11 +560,14 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -571,14 +583,17 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -591,8 +606,14 @@
       <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -605,14 +626,14 @@
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -620,13 +641,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -634,10 +661,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
@@ -656,6 +686,9 @@
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -665,10 +698,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -684,10 +720,12 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -698,6 +736,12 @@
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -714,25 +758,31 @@
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -740,7 +790,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -750,11 +806,14 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.8" x14ac:dyDescent="0.4">
@@ -764,36 +823,49 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -801,13 +873,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -815,21 +890,30 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -842,8 +926,11 @@
       <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -856,22 +943,31 @@
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -880,7 +976,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I25" xr:uid="{B1E41A7D-20C1-4F82-A994-5B57CE4B2AC9}"/>
+  <autoFilter ref="A1:I25" xr:uid="{B1E41A7D-20C1-4F82-A994-5B57CE4B2AC9}">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
